--- a/dataset/19_ROIs.xlsx
+++ b/dataset/19_ROIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\TemporalGAN\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1178462A-5B0E-4C77-9444-F77D6880CD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEC1241-3DED-493A-AED9-5D5964994D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,7 +366,7 @@
     <t>('2019-07-07','2019-08-07')</t>
   </si>
   <si>
-    <t>('2019-04-07','2019-05-07')</t>
+    <t>('2019-01-07','2019-02-07')</t>
   </si>
 </sst>
 </file>
@@ -1058,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1159,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>16</v>
@@ -1209,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>19</v>
@@ -1359,7 +1359,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>19</v>
@@ -1391,7 +1391,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>25</v>
@@ -1767,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>16</v>
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>19</v>
@@ -2369,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>16</v>
@@ -2419,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>19</v>
@@ -30112,17 +30112,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:J27 F28:H31">
+  <conditionalFormatting sqref="F28:H31 F26:J27">
     <cfRule type="expression" dxfId="44" priority="5">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:J27 F28:H31">
+  <conditionalFormatting sqref="F28:H31 F26:J27">
     <cfRule type="expression" dxfId="43" priority="6">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:J27 F28:H31">
+  <conditionalFormatting sqref="F28:H31 F26:J27">
     <cfRule type="expression" dxfId="42" priority="7">
       <formula>#REF!="main"</formula>
     </cfRule>

--- a/dataset/19_ROIs.xlsx
+++ b/dataset/19_ROIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\TemporalGAN\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8CA5FA-A02D-482A-A7B3-AA73DFD429AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E22A2CD-4DED-49D1-A9E4-3DF2E146E033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,9 +366,6 @@
     <t>('2019-07-07','2019-08-07')</t>
   </si>
   <si>
-    <t>('2019-01-07','2019-02-07')</t>
-  </si>
-  <si>
     <t>train_test</t>
   </si>
   <si>
@@ -376,6 +373,9 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>('2019-03-07','2019-04-07')</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1125,7 +1125,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>11</v>
@@ -1180,7 +1180,7 @@
         <v>16</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -1233,7 +1233,7 @@
         <v>19</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -1286,7 +1286,7 @@
         <v>22</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -1339,7 +1339,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -1392,7 +1392,7 @@
         <v>19</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -1445,7 +1445,7 @@
         <v>22</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -1498,7 +1498,7 @@
         <v>16</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -1551,7 +1551,7 @@
         <v>22</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -1604,7 +1604,7 @@
         <v>16</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>36</v>
@@ -1659,7 +1659,7 @@
         <v>19</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>36</v>
@@ -1714,7 +1714,7 @@
         <v>16</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>41</v>
@@ -1769,7 +1769,7 @@
         <v>19</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>41</v>
@@ -1824,7 +1824,7 @@
         <v>16</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -1877,7 +1877,7 @@
         <v>19</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -1930,7 +1930,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -1983,7 +1983,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -2036,7 +2036,7 @@
         <v>16</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -2089,7 +2089,7 @@
         <v>19</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -2142,7 +2142,7 @@
         <v>22</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -2195,7 +2195,7 @@
         <v>16</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -2248,7 +2248,7 @@
         <v>19</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -2301,7 +2301,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -2354,7 +2354,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>65</v>
@@ -2409,7 +2409,7 @@
         <v>22</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -2462,7 +2462,7 @@
         <v>16</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -2515,7 +2515,7 @@
         <v>19</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>72</v>
@@ -2570,7 +2570,7 @@
         <v>16</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -2623,7 +2623,7 @@
         <v>19</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -2676,7 +2676,7 @@
         <v>16</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -2729,7 +2729,7 @@
         <v>19</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -2758,7 +2758,7 @@
         <v>82</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>14</v>
@@ -2782,7 +2782,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -2811,7 +2811,7 @@
         <v>84</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>14</v>
@@ -2835,7 +2835,7 @@
         <v>19</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -2888,7 +2888,7 @@
         <v>16</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -2941,7 +2941,7 @@
         <v>19</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -2994,7 +2994,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -3047,7 +3047,7 @@
         <v>16</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -3100,7 +3100,7 @@
         <v>19</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
@@ -3153,7 +3153,7 @@
         <v>16</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -3206,7 +3206,7 @@
         <v>16</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -3259,7 +3259,7 @@
         <v>16</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>101</v>
@@ -3314,7 +3314,7 @@
         <v>16</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
@@ -3367,7 +3367,7 @@
         <v>16</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -3420,7 +3420,7 @@
         <v>16</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
@@ -3473,7 +3473,7 @@
         <v>19</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>

--- a/dataset/19_ROIs.xlsx
+++ b/dataset/19_ROIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\TemporalGAN\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E22A2CD-4DED-49D1-A9E4-3DF2E146E033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6AFE4F-ACF4-44A5-A46E-85C201C82284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="120">
   <si>
     <t>name</t>
   </si>
@@ -377,6 +377,15 @@
   <si>
     <t>('2019-03-07','2019-04-07')</t>
   </si>
+  <si>
+    <t>aguasclaras</t>
+  </si>
+  <si>
+    <t>('2021-06-07','2021-07-07')</t>
+  </si>
+  <si>
+    <t>aguasclaras_buffed</t>
+  </si>
 </sst>
 </file>
 
@@ -472,7 +481,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="51">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1068,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA1000"/>
+  <dimension ref="A1:AA1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1174,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>16</v>
@@ -1227,7 +1260,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>19</v>
@@ -1253,16 +1286,16 @@
     </row>
     <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="B4" s="4">
         <v>19</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>14</v>
@@ -1282,8 +1315,8 @@
       <c r="J4" s="4">
         <v>0</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>22</v>
+      <c r="K4" t="s">
+        <v>16</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>114</v>
@@ -1306,19 +1339,19 @@
     </row>
     <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="B5" s="4">
         <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>15</v>
@@ -1335,8 +1368,8 @@
       <c r="J5" s="4">
         <v>0</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>16</v>
+      <c r="K5" t="s">
+        <v>19</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>114</v>
@@ -1359,19 +1392,19 @@
     </row>
     <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4">
         <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>15</v>
@@ -1386,10 +1419,10 @@
         <v>1</v>
       </c>
       <c r="J6" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>114</v>
@@ -1412,13 +1445,13 @@
     </row>
     <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4">
         <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>111</v>
@@ -1442,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>114</v>
@@ -1465,16 +1498,16 @@
     </row>
     <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>25</v>
@@ -1492,10 +1525,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>114</v>
@@ -1518,16 +1551,16 @@
     </row>
     <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4">
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>25</v>
@@ -1571,19 +1604,19 @@
     </row>
     <row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B10" s="4">
         <v>19</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>15</v>
@@ -1606,9 +1639,7 @@
       <c r="L10" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -1626,19 +1657,19 @@
     </row>
     <row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B11" s="4">
         <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>15</v>
@@ -1656,14 +1687,12 @@
         <v>0</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -1681,13 +1710,13 @@
     </row>
     <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B12" s="4">
         <v>19</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>110</v>
@@ -1717,7 +1746,7 @@
         <v>114</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1736,13 +1765,13 @@
     </row>
     <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B13" s="4">
         <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>110</v>
@@ -1772,7 +1801,7 @@
         <v>114</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1791,13 +1820,13 @@
     </row>
     <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B14" s="4">
         <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>110</v>
@@ -1818,15 +1847,17 @@
         <v>1</v>
       </c>
       <c r="J14" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="M14" s="4"/>
+        <v>114</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -1844,13 +1875,13 @@
     </row>
     <row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B15" s="4">
         <v>19</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>110</v>
@@ -1871,15 +1902,17 @@
         <v>1</v>
       </c>
       <c r="J15" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="M15" s="4"/>
+        <v>114</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -1897,19 +1930,19 @@
     </row>
     <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B16" s="4">
         <v>19</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>15</v>
@@ -1924,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>16</v>
@@ -1950,19 +1983,19 @@
     </row>
     <row r="17" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B17" s="4">
         <v>19</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>15</v>
@@ -1977,13 +2010,13 @@
         <v>1</v>
       </c>
       <c r="J17" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -2003,19 +2036,19 @@
     </row>
     <row r="18" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B18" s="4">
         <v>19</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>15</v>
@@ -2030,13 +2063,13 @@
         <v>1</v>
       </c>
       <c r="J18" s="4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -2056,19 +2089,19 @@
     </row>
     <row r="19" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B19" s="4">
         <v>19</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>15</v>
@@ -2083,10 +2116,10 @@
         <v>1</v>
       </c>
       <c r="J19" s="4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>114</v>
@@ -2109,13 +2142,13 @@
     </row>
     <row r="20" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B20" s="4">
         <v>19</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>110</v>
@@ -2139,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>114</v>
@@ -2162,13 +2195,13 @@
     </row>
     <row r="21" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B21" s="4">
         <v>19</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>110</v>
@@ -2189,13 +2222,13 @@
         <v>1</v>
       </c>
       <c r="J21" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -2215,13 +2248,13 @@
     </row>
     <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B22" s="4">
         <v>19</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>110</v>
@@ -2242,13 +2275,13 @@
         <v>1</v>
       </c>
       <c r="J22" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -2268,13 +2301,13 @@
     </row>
     <row r="23" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B23" s="4">
         <v>19</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>110</v>
@@ -2295,13 +2328,13 @@
         <v>1</v>
       </c>
       <c r="J23" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -2321,19 +2354,19 @@
     </row>
     <row r="24" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B24" s="4">
         <v>19</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>15</v>
@@ -2348,17 +2381,15 @@
         <v>1</v>
       </c>
       <c r="J24" s="4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
@@ -2376,19 +2407,19 @@
     </row>
     <row r="25" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B25" s="4">
         <v>19</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>15</v>
@@ -2403,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>22</v>
@@ -2429,19 +2460,19 @@
     </row>
     <row r="26" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B26" s="4">
         <v>19</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>15</v>
@@ -2456,15 +2487,17 @@
         <v>1</v>
       </c>
       <c r="J26" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>16</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="M26" s="4"/>
+        <v>114</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -2482,19 +2515,19 @@
     </row>
     <row r="27" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B27" s="4">
         <v>19</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>15</v>
@@ -2509,17 +2542,15 @@
         <v>1</v>
       </c>
       <c r="J27" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>72</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
@@ -2537,16 +2568,16 @@
     </row>
     <row r="28" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B28" s="4">
         <v>19</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>14</v>
@@ -2564,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>16</v>
@@ -2590,16 +2621,16 @@
     </row>
     <row r="29" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B29" s="4">
         <v>19</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>14</v>
@@ -2617,7 +2648,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>19</v>
@@ -2625,7 +2656,9 @@
       <c r="L29" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="M29" s="4"/>
+      <c r="M29" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -2643,16 +2676,16 @@
     </row>
     <row r="30" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B30" s="4">
         <v>19</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>14</v>
@@ -2696,16 +2729,16 @@
     </row>
     <row r="31" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B31" s="4">
         <v>19</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>14</v>
@@ -2749,16 +2782,16 @@
     </row>
     <row r="32" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B32" s="4">
         <v>19</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>14</v>
@@ -2782,7 +2815,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -2802,16 +2835,16 @@
     </row>
     <row r="33" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B33" s="4">
         <v>19</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>14</v>
@@ -2835,7 +2868,7 @@
         <v>19</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -2855,16 +2888,16 @@
     </row>
     <row r="34" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B34" s="4">
         <v>19</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>14</v>
@@ -2908,16 +2941,16 @@
     </row>
     <row r="35" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B35" s="4">
         <v>19</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>14</v>
@@ -2961,13 +2994,13 @@
     </row>
     <row r="36" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B36" s="4">
         <v>19</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>110</v>
@@ -2994,7 +3027,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -3014,13 +3047,13 @@
     </row>
     <row r="37" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B37" s="4">
         <v>19</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>110</v>
@@ -3044,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>114</v>
@@ -3067,13 +3100,13 @@
     </row>
     <row r="38" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B38" s="4">
         <v>19</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>110</v>
@@ -3097,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
@@ -3120,13 +3153,13 @@
     </row>
     <row r="39" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B39" s="4">
         <v>19</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>110</v>
@@ -3173,13 +3206,13 @@
     </row>
     <row r="40" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B40" s="4">
         <v>19</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>110</v>
@@ -3203,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L40" s="6" t="s">
         <v>114</v>
@@ -3226,13 +3259,13 @@
     </row>
     <row r="41" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B41" s="4">
         <v>19</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>110</v>
@@ -3259,11 +3292,9 @@
         <v>16</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>101</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
@@ -3281,13 +3312,13 @@
     </row>
     <row r="42" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B42" s="4">
         <v>19</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>110</v>
@@ -3314,7 +3345,7 @@
         <v>16</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
@@ -3334,13 +3365,13 @@
     </row>
     <row r="43" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B43" s="4">
         <v>19</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>110</v>
@@ -3367,9 +3398,11 @@
         <v>16</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="M43" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
@@ -3387,13 +3420,13 @@
     </row>
     <row r="44" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B44" s="4">
         <v>19</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>110</v>
@@ -3440,13 +3473,13 @@
     </row>
     <row r="45" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B45" s="4">
         <v>19</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>110</v>
@@ -3470,10 +3503,10 @@
         <v>0</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
@@ -3492,18 +3525,42 @@
       <c r="AA45" s="4"/>
     </row>
     <row r="46" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="4">
+        <v>19</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="4">
+        <v>2</v>
+      </c>
+      <c r="H46" s="4">
+        <v>5</v>
+      </c>
+      <c r="I46" s="4">
+        <v>1</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
@@ -3521,18 +3578,42 @@
       <c r="AA46" s="4"/>
     </row>
     <row r="47" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="4">
+        <v>19</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="4">
+        <v>2</v>
+      </c>
+      <c r="H47" s="4">
+        <v>5</v>
+      </c>
+      <c r="I47" s="4">
+        <v>1</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
@@ -31186,23 +31267,81 @@
       <c r="Z1000" s="4"/>
       <c r="AA1000" s="4"/>
     </row>
+    <row r="1001" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1001" s="4"/>
+      <c r="B1001" s="4"/>
+      <c r="C1001" s="5"/>
+      <c r="D1001" s="4"/>
+      <c r="E1001" s="4"/>
+      <c r="F1001" s="6"/>
+      <c r="G1001" s="4"/>
+      <c r="H1001" s="4"/>
+      <c r="I1001" s="4"/>
+      <c r="J1001" s="4"/>
+      <c r="K1001" s="6"/>
+      <c r="L1001" s="6"/>
+      <c r="M1001" s="4"/>
+      <c r="N1001" s="4"/>
+      <c r="O1001" s="4"/>
+      <c r="P1001" s="4"/>
+      <c r="Q1001" s="4"/>
+      <c r="R1001" s="4"/>
+      <c r="S1001" s="4"/>
+      <c r="T1001" s="4"/>
+      <c r="U1001" s="4"/>
+      <c r="V1001" s="4"/>
+      <c r="W1001" s="4"/>
+      <c r="X1001" s="4"/>
+      <c r="Y1001" s="4"/>
+      <c r="Z1001" s="4"/>
+      <c r="AA1001" s="4"/>
+    </row>
+    <row r="1002" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1002" s="4"/>
+      <c r="B1002" s="4"/>
+      <c r="C1002" s="5"/>
+      <c r="D1002" s="4"/>
+      <c r="E1002" s="4"/>
+      <c r="F1002" s="6"/>
+      <c r="G1002" s="4"/>
+      <c r="H1002" s="4"/>
+      <c r="I1002" s="4"/>
+      <c r="J1002" s="4"/>
+      <c r="K1002" s="6"/>
+      <c r="L1002" s="6"/>
+      <c r="M1002" s="4"/>
+      <c r="N1002" s="4"/>
+      <c r="O1002" s="4"/>
+      <c r="P1002" s="4"/>
+      <c r="Q1002" s="4"/>
+      <c r="R1002" s="4"/>
+      <c r="S1002" s="4"/>
+      <c r="T1002" s="4"/>
+      <c r="U1002" s="4"/>
+      <c r="V1002" s="4"/>
+      <c r="W1002" s="4"/>
+      <c r="X1002" s="4"/>
+      <c r="Y1002" s="4"/>
+      <c r="Z1002" s="4"/>
+      <c r="AA1002" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:L1000">
-    <cfRule type="expression" dxfId="47" priority="1">
+  <conditionalFormatting sqref="L4:L5 B4:B5 A2:L3 A6:L1002">
+    <cfRule type="expression" dxfId="50" priority="1">
       <formula>$K2="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:L1000">
-    <cfRule type="expression" dxfId="46" priority="2">
+  <conditionalFormatting sqref="L4:L5 B4:B5 A2:L3 A6:L1002">
+    <cfRule type="expression" dxfId="49" priority="2">
       <formula>$K2="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:L1000">
-    <cfRule type="expression" dxfId="45" priority="3">
+  <conditionalFormatting sqref="L4:L5 B4:B5 A2:L3 A6:L1002">
+    <cfRule type="expression" dxfId="48" priority="3">
       <formula>$K2="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1000">
+  <conditionalFormatting sqref="B1:B1002">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -31214,22 +31353,22 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:H31 F26:J27">
-    <cfRule type="expression" dxfId="44" priority="5">
+  <conditionalFormatting sqref="F30:H33 F28:J29">
+    <cfRule type="expression" dxfId="47" priority="5">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:H31 F26:J27">
-    <cfRule type="expression" dxfId="43" priority="6">
+  <conditionalFormatting sqref="F30:H33 F28:J29">
+    <cfRule type="expression" dxfId="46" priority="6">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:H31 F26:J27">
-    <cfRule type="expression" dxfId="42" priority="7">
+  <conditionalFormatting sqref="F30:H33 F28:J29">
+    <cfRule type="expression" dxfId="45" priority="7">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1000">
+  <conditionalFormatting sqref="B1:B1002">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -31241,214 +31380,229 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:H38 F40:H41">
-    <cfRule type="expression" dxfId="41" priority="9">
+  <conditionalFormatting sqref="F34:H40 F42:H43">
+    <cfRule type="expression" dxfId="44" priority="9">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:H38 F40:H41">
-    <cfRule type="expression" dxfId="40" priority="10">
+  <conditionalFormatting sqref="F34:H40 F42:H43">
+    <cfRule type="expression" dxfId="43" priority="10">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:H38 F40:H41">
-    <cfRule type="expression" dxfId="39" priority="11">
+  <conditionalFormatting sqref="F34:H40 F42:H43">
+    <cfRule type="expression" dxfId="42" priority="11">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39:H39">
-    <cfRule type="expression" dxfId="38" priority="12">
+  <conditionalFormatting sqref="F41:H41">
+    <cfRule type="expression" dxfId="41" priority="12">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39:H39">
-    <cfRule type="expression" dxfId="37" priority="13">
+  <conditionalFormatting sqref="F41:H41">
+    <cfRule type="expression" dxfId="40" priority="13">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39:H39">
-    <cfRule type="expression" dxfId="36" priority="14">
-      <formula>#REF!="main"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42:H42">
-    <cfRule type="expression" dxfId="35" priority="15">
-      <formula>#REF!="adj"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42:H42">
-    <cfRule type="expression" dxfId="34" priority="16">
-      <formula>#REF!="buff"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42:H42">
-    <cfRule type="expression" dxfId="33" priority="17">
-      <formula>#REF!="main"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42:H42">
-    <cfRule type="expression" dxfId="32" priority="18">
-      <formula>#REF!="adj"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42:H42">
-    <cfRule type="expression" dxfId="31" priority="19">
-      <formula>#REF!="buff"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42:H42">
-    <cfRule type="expression" dxfId="30" priority="20">
-      <formula>#REF!="main"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43:H43">
-    <cfRule type="expression" dxfId="29" priority="21">
-      <formula>#REF!="adj"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43:H43">
-    <cfRule type="expression" dxfId="28" priority="22">
-      <formula>#REF!="buff"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43:H43">
-    <cfRule type="expression" dxfId="27" priority="23">
-      <formula>#REF!="main"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43:H43">
-    <cfRule type="expression" dxfId="26" priority="24">
-      <formula>#REF!="adj"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43:H43">
-    <cfRule type="expression" dxfId="25" priority="25">
-      <formula>#REF!="buff"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43:H43">
-    <cfRule type="expression" dxfId="24" priority="26">
+  <conditionalFormatting sqref="F41:H41">
+    <cfRule type="expression" dxfId="39" priority="14">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:H44">
-    <cfRule type="expression" dxfId="23" priority="27">
+    <cfRule type="expression" dxfId="38" priority="15">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:H44">
-    <cfRule type="expression" dxfId="22" priority="28">
+    <cfRule type="expression" dxfId="37" priority="16">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:H44">
-    <cfRule type="expression" dxfId="21" priority="29">
+    <cfRule type="expression" dxfId="36" priority="17">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:H44">
-    <cfRule type="expression" dxfId="20" priority="30">
+    <cfRule type="expression" dxfId="35" priority="18">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:H44">
-    <cfRule type="expression" dxfId="19" priority="31">
+    <cfRule type="expression" dxfId="34" priority="19">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:H44">
-    <cfRule type="expression" dxfId="18" priority="32">
+    <cfRule type="expression" dxfId="33" priority="20">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:H45">
-    <cfRule type="expression" dxfId="17" priority="33">
+    <cfRule type="expression" dxfId="32" priority="21">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:H45">
-    <cfRule type="expression" dxfId="16" priority="34">
+    <cfRule type="expression" dxfId="31" priority="22">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:H45">
-    <cfRule type="expression" dxfId="15" priority="35">
+    <cfRule type="expression" dxfId="30" priority="23">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:H45">
-    <cfRule type="expression" dxfId="14" priority="36">
+    <cfRule type="expression" dxfId="29" priority="24">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:H45">
-    <cfRule type="expression" dxfId="13" priority="37">
+    <cfRule type="expression" dxfId="28" priority="25">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:H45">
-    <cfRule type="expression" dxfId="12" priority="38">
+    <cfRule type="expression" dxfId="27" priority="26">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:H46">
-    <cfRule type="expression" dxfId="11" priority="39">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:H46">
-    <cfRule type="expression" dxfId="10" priority="40">
+    <cfRule type="expression" dxfId="25" priority="28">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:H46">
-    <cfRule type="expression" dxfId="9" priority="41">
+    <cfRule type="expression" dxfId="24" priority="29">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:H46">
-    <cfRule type="expression" dxfId="8" priority="42">
+    <cfRule type="expression" dxfId="23" priority="30">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:H46">
-    <cfRule type="expression" dxfId="7" priority="43">
+    <cfRule type="expression" dxfId="22" priority="31">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:H46">
-    <cfRule type="expression" dxfId="6" priority="44">
+    <cfRule type="expression" dxfId="21" priority="32">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:H47">
-    <cfRule type="expression" dxfId="5" priority="45">
+    <cfRule type="expression" dxfId="20" priority="33">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:H47">
-    <cfRule type="expression" dxfId="4" priority="46">
+    <cfRule type="expression" dxfId="19" priority="34">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:H47">
-    <cfRule type="expression" dxfId="3" priority="47">
+    <cfRule type="expression" dxfId="18" priority="35">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:H47">
-    <cfRule type="expression" dxfId="2" priority="48">
+    <cfRule type="expression" dxfId="17" priority="36">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:H47">
-    <cfRule type="expression" dxfId="1" priority="49">
+    <cfRule type="expression" dxfId="16" priority="37">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:H47">
-    <cfRule type="expression" dxfId="0" priority="50">
+    <cfRule type="expression" dxfId="15" priority="38">
       <formula>#REF!="main"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48:H48">
+    <cfRule type="expression" dxfId="14" priority="39">
+      <formula>#REF!="adj"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48:H48">
+    <cfRule type="expression" dxfId="13" priority="40">
+      <formula>#REF!="buff"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48:H48">
+    <cfRule type="expression" dxfId="12" priority="41">
+      <formula>#REF!="main"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48:H48">
+    <cfRule type="expression" dxfId="11" priority="42">
+      <formula>#REF!="adj"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48:H48">
+    <cfRule type="expression" dxfId="10" priority="43">
+      <formula>#REF!="buff"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48:H48">
+    <cfRule type="expression" dxfId="9" priority="44">
+      <formula>#REF!="main"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49:H49">
+    <cfRule type="expression" dxfId="8" priority="45">
+      <formula>#REF!="adj"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49:H49">
+    <cfRule type="expression" dxfId="7" priority="46">
+      <formula>#REF!="buff"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49:H49">
+    <cfRule type="expression" dxfId="6" priority="47">
+      <formula>#REF!="main"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49:H49">
+    <cfRule type="expression" dxfId="5" priority="48">
+      <formula>#REF!="adj"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49:H49">
+    <cfRule type="expression" dxfId="4" priority="49">
+      <formula>#REF!="buff"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49:H49">
+    <cfRule type="expression" dxfId="3" priority="50">
+      <formula>#REF!="main"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:J5">
+    <cfRule type="expression" dxfId="2" priority="52">
+      <formula>$L4="adj"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:J5">
+    <cfRule type="expression" dxfId="1" priority="55">
+      <formula>$L4="buff"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:J5">
+    <cfRule type="expression" dxfId="0" priority="58">
+      <formula>$L4="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/dataset/19_ROIs.xlsx
+++ b/dataset/19_ROIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\TemporalGAN\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6AFE4F-ACF4-44A5-A46E-85C201C82284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386536FF-528C-4745-9E41-8ED5CC5C278E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="119">
   <si>
     <t>name</t>
   </si>
@@ -375,9 +375,6 @@
     <t>test</t>
   </si>
   <si>
-    <t>('2019-03-07','2019-04-07')</t>
-  </si>
-  <si>
     <t>aguasclaras</t>
   </si>
   <si>
@@ -481,7 +478,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="54">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1103,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1286,7 +1307,7 @@
     </row>
     <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="4">
         <v>19</v>
@@ -1295,7 +1316,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>14</v>
@@ -1339,7 +1360,7 @@
     </row>
     <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="4">
         <v>19</v>
@@ -1348,7 +1369,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>14</v>
@@ -2897,7 +2918,7 @@
         <v>82</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>14</v>
@@ -2950,7 +2971,7 @@
         <v>84</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>14</v>
@@ -31327,17 +31348,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L4:L5 B4:B5 A2:L3 A6:L1002">
-    <cfRule type="expression" dxfId="50" priority="1">
+    <cfRule type="expression" dxfId="53" priority="1">
       <formula>$K2="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 B4:B5 A2:L3 A6:L1002">
-    <cfRule type="expression" dxfId="49" priority="2">
+    <cfRule type="expression" dxfId="52" priority="2">
       <formula>$K2="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 B4:B5 A2:L3 A6:L1002">
-    <cfRule type="expression" dxfId="48" priority="3">
+    <cfRule type="expression" dxfId="51" priority="3">
       <formula>$K2="main"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31354,17 +31375,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:H33 F28:J29">
-    <cfRule type="expression" dxfId="47" priority="5">
+    <cfRule type="expression" dxfId="50" priority="5">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:H33 F28:J29">
-    <cfRule type="expression" dxfId="46" priority="6">
+    <cfRule type="expression" dxfId="49" priority="6">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:H33 F28:J29">
-    <cfRule type="expression" dxfId="45" priority="7">
+    <cfRule type="expression" dxfId="48" priority="7">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31381,227 +31402,227 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:H40 F42:H43">
-    <cfRule type="expression" dxfId="44" priority="9">
+    <cfRule type="expression" dxfId="47" priority="9">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:H40 F42:H43">
-    <cfRule type="expression" dxfId="43" priority="10">
+    <cfRule type="expression" dxfId="46" priority="10">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:H40 F42:H43">
-    <cfRule type="expression" dxfId="42" priority="11">
+    <cfRule type="expression" dxfId="45" priority="11">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:H41">
-    <cfRule type="expression" dxfId="41" priority="12">
+    <cfRule type="expression" dxfId="44" priority="12">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:H41">
-    <cfRule type="expression" dxfId="40" priority="13">
+    <cfRule type="expression" dxfId="43" priority="13">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:H41">
-    <cfRule type="expression" dxfId="39" priority="14">
+    <cfRule type="expression" dxfId="42" priority="14">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:H44">
-    <cfRule type="expression" dxfId="38" priority="15">
+    <cfRule type="expression" dxfId="41" priority="15">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:H44">
-    <cfRule type="expression" dxfId="37" priority="16">
+    <cfRule type="expression" dxfId="40" priority="16">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:H44">
-    <cfRule type="expression" dxfId="36" priority="17">
+    <cfRule type="expression" dxfId="39" priority="17">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:H44">
-    <cfRule type="expression" dxfId="35" priority="18">
+    <cfRule type="expression" dxfId="38" priority="18">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:H44">
-    <cfRule type="expression" dxfId="34" priority="19">
+    <cfRule type="expression" dxfId="37" priority="19">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:H44">
-    <cfRule type="expression" dxfId="33" priority="20">
+    <cfRule type="expression" dxfId="36" priority="20">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:H45">
-    <cfRule type="expression" dxfId="32" priority="21">
+    <cfRule type="expression" dxfId="35" priority="21">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:H45">
-    <cfRule type="expression" dxfId="31" priority="22">
+    <cfRule type="expression" dxfId="34" priority="22">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:H45">
-    <cfRule type="expression" dxfId="30" priority="23">
+    <cfRule type="expression" dxfId="33" priority="23">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:H45">
-    <cfRule type="expression" dxfId="29" priority="24">
+    <cfRule type="expression" dxfId="32" priority="24">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:H45">
-    <cfRule type="expression" dxfId="28" priority="25">
+    <cfRule type="expression" dxfId="31" priority="25">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:H45">
-    <cfRule type="expression" dxfId="27" priority="26">
+    <cfRule type="expression" dxfId="30" priority="26">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:H46">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="29" priority="27">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:H46">
-    <cfRule type="expression" dxfId="25" priority="28">
+    <cfRule type="expression" dxfId="28" priority="28">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:H46">
-    <cfRule type="expression" dxfId="24" priority="29">
+    <cfRule type="expression" dxfId="27" priority="29">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:H46">
-    <cfRule type="expression" dxfId="23" priority="30">
+    <cfRule type="expression" dxfId="26" priority="30">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:H46">
-    <cfRule type="expression" dxfId="22" priority="31">
+    <cfRule type="expression" dxfId="25" priority="31">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:H46">
-    <cfRule type="expression" dxfId="21" priority="32">
+    <cfRule type="expression" dxfId="24" priority="32">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:H47">
-    <cfRule type="expression" dxfId="20" priority="33">
+    <cfRule type="expression" dxfId="23" priority="33">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:H47">
-    <cfRule type="expression" dxfId="19" priority="34">
+    <cfRule type="expression" dxfId="22" priority="34">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:H47">
-    <cfRule type="expression" dxfId="18" priority="35">
+    <cfRule type="expression" dxfId="21" priority="35">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:H47">
-    <cfRule type="expression" dxfId="17" priority="36">
+    <cfRule type="expression" dxfId="20" priority="36">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:H47">
-    <cfRule type="expression" dxfId="16" priority="37">
+    <cfRule type="expression" dxfId="19" priority="37">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:H47">
-    <cfRule type="expression" dxfId="15" priority="38">
+    <cfRule type="expression" dxfId="18" priority="38">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="14" priority="39">
+    <cfRule type="expression" dxfId="17" priority="39">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="13" priority="40">
+    <cfRule type="expression" dxfId="16" priority="40">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="12" priority="41">
+    <cfRule type="expression" dxfId="15" priority="41">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="11" priority="42">
+    <cfRule type="expression" dxfId="14" priority="42">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="10" priority="43">
+    <cfRule type="expression" dxfId="13" priority="43">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="9" priority="44">
+    <cfRule type="expression" dxfId="12" priority="44">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="8" priority="45">
+    <cfRule type="expression" dxfId="11" priority="45">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="7" priority="46">
+    <cfRule type="expression" dxfId="10" priority="46">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="6" priority="47">
+    <cfRule type="expression" dxfId="9" priority="47">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="5" priority="48">
+    <cfRule type="expression" dxfId="8" priority="48">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="4" priority="49">
+    <cfRule type="expression" dxfId="7" priority="49">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="3" priority="50">
+    <cfRule type="expression" dxfId="6" priority="50">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:J5">
-    <cfRule type="expression" dxfId="2" priority="52">
+    <cfRule type="expression" dxfId="5" priority="52">
       <formula>$L4="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:J5">
-    <cfRule type="expression" dxfId="1" priority="55">
+    <cfRule type="expression" dxfId="4" priority="55">
       <formula>$L4="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:J5">
-    <cfRule type="expression" dxfId="0" priority="58">
+    <cfRule type="expression" dxfId="3" priority="58">
       <formula>$L4="main"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/dataset/19_ROIs.xlsx
+++ b/dataset/19_ROIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\TemporalGAN\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386536FF-528C-4745-9E41-8ED5CC5C278E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF5A5BF-D22C-4B99-BFD1-2C3F5BB272CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="120">
   <si>
     <t>name</t>
   </si>
@@ -383,6 +383,9 @@
   <si>
     <t>aguasclaras_buffed</t>
   </si>
+  <si>
+    <t>('2019-03-07','2019-04-07')</t>
+  </si>
 </sst>
 </file>
 
@@ -478,31 +481,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="51">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1125,7 +1104,7 @@
   <dimension ref="A1:AA1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1475,7 +1454,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>25</v>
@@ -1528,7 +1507,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>25</v>
@@ -31348,17 +31327,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L4:L5 B4:B5 A2:L3 A6:L1002">
-    <cfRule type="expression" dxfId="53" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$K2="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 B4:B5 A2:L3 A6:L1002">
-    <cfRule type="expression" dxfId="52" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$K2="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 B4:B5 A2:L3 A6:L1002">
-    <cfRule type="expression" dxfId="51" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$K2="main"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/dataset/19_ROIs.xlsx
+++ b/dataset/19_ROIs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\TemporalGAN\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF5A5BF-D22C-4B99-BFD1-2C3F5BB272CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358832CA-7546-41B1-B11C-EA7117BECEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ROIs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="124">
   <si>
     <t>name</t>
   </si>
@@ -385,6 +385,18 @@
   </si>
   <si>
     <t>('2019-03-07','2019-04-07')</t>
+  </si>
+  <si>
+    <t>('2019-03-07','2019-05-07')</t>
+  </si>
+  <si>
+    <t>('2019-05-07','2019-07-07')</t>
+  </si>
+  <si>
+    <t>('2019-05-07','2019-08-07')</t>
+  </si>
+  <si>
+    <t>('2019-03-07','2019-06-07')</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1116,7 @@
   <dimension ref="A1:AA1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1198,7 +1210,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="4">
         <v>5</v>
@@ -1251,7 +1263,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H3" s="4">
         <v>5</v>
@@ -1304,7 +1316,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="4">
         <v>5</v>
@@ -1357,7 +1369,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="4">
         <v>5</v>
@@ -1410,7 +1422,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H6" s="4">
         <v>5</v>
@@ -1463,7 +1475,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H7" s="4">
         <v>5</v>
@@ -1507,7 +1519,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>25</v>
@@ -1525,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>19</v>
@@ -1569,7 +1581,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H9" s="4">
         <v>5</v>
@@ -1622,7 +1634,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H10" s="4">
         <v>5</v>
@@ -1675,7 +1687,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H11" s="4">
         <v>5</v>
@@ -1728,7 +1740,7 @@
         <v>15</v>
       </c>
       <c r="G12" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H12" s="4">
         <v>5</v>
@@ -1783,7 +1795,7 @@
         <v>15</v>
       </c>
       <c r="G13" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H13" s="4">
         <v>5</v>
@@ -1838,7 +1850,7 @@
         <v>15</v>
       </c>
       <c r="G14" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H14" s="4">
         <v>5</v>
@@ -1893,7 +1905,7 @@
         <v>15</v>
       </c>
       <c r="G15" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H15" s="4">
         <v>5</v>
@@ -1948,7 +1960,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H16" s="4">
         <v>5</v>
@@ -2001,7 +2013,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H17" s="4">
         <v>5</v>
@@ -2045,7 +2057,7 @@
         <v>49</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>25</v>
@@ -2098,7 +2110,7 @@
         <v>51</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>25</v>
@@ -2107,7 +2119,7 @@
         <v>15</v>
       </c>
       <c r="G19" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H19" s="4">
         <v>5</v>
@@ -2151,7 +2163,7 @@
         <v>53</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>14</v>
@@ -2204,7 +2216,7 @@
         <v>55</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>14</v>
@@ -2266,7 +2278,7 @@
         <v>15</v>
       </c>
       <c r="G22" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H22" s="4">
         <v>5</v>
@@ -2319,7 +2331,7 @@
         <v>15</v>
       </c>
       <c r="G23" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H23" s="4">
         <v>5</v>
@@ -2372,7 +2384,7 @@
         <v>15</v>
       </c>
       <c r="G24" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H24" s="4">
         <v>5</v>
@@ -2425,7 +2437,7 @@
         <v>15</v>
       </c>
       <c r="G25" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H25" s="4">
         <v>5</v>
@@ -2478,7 +2490,7 @@
         <v>15</v>
       </c>
       <c r="G26" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H26" s="4">
         <v>5</v>
@@ -2533,7 +2545,7 @@
         <v>15</v>
       </c>
       <c r="G27" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H27" s="4">
         <v>5</v>
@@ -2586,7 +2598,7 @@
         <v>15</v>
       </c>
       <c r="G28" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H28" s="4">
         <v>5</v>
@@ -2639,7 +2651,7 @@
         <v>15</v>
       </c>
       <c r="G29" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H29" s="4">
         <v>5</v>
@@ -2694,7 +2706,7 @@
         <v>15</v>
       </c>
       <c r="G30" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H30" s="4">
         <v>5</v>
@@ -2747,7 +2759,7 @@
         <v>15</v>
       </c>
       <c r="G31" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H31" s="4">
         <v>5</v>
@@ -2800,7 +2812,7 @@
         <v>15</v>
       </c>
       <c r="G32" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H32" s="4">
         <v>5</v>
@@ -2853,7 +2865,7 @@
         <v>15</v>
       </c>
       <c r="G33" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H33" s="4">
         <v>5</v>
@@ -2906,7 +2918,7 @@
         <v>15</v>
       </c>
       <c r="G34" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H34" s="4">
         <v>5</v>
@@ -2959,7 +2971,7 @@
         <v>15</v>
       </c>
       <c r="G35" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H35" s="4">
         <v>5</v>
@@ -3012,7 +3024,7 @@
         <v>15</v>
       </c>
       <c r="G36" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H36" s="4">
         <v>5</v>
@@ -3065,7 +3077,7 @@
         <v>15</v>
       </c>
       <c r="G37" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H37" s="4">
         <v>5</v>
@@ -3118,7 +3130,7 @@
         <v>15</v>
       </c>
       <c r="G38" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H38" s="4">
         <v>5</v>
@@ -3171,7 +3183,7 @@
         <v>15</v>
       </c>
       <c r="G39" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H39" s="4">
         <v>5</v>
@@ -3224,7 +3236,7 @@
         <v>15</v>
       </c>
       <c r="G40" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H40" s="4">
         <v>5</v>
@@ -3277,7 +3289,7 @@
         <v>15</v>
       </c>
       <c r="G41" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H41" s="4">
         <v>5</v>
@@ -3330,7 +3342,7 @@
         <v>15</v>
       </c>
       <c r="G42" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H42" s="4">
         <v>5</v>
@@ -3438,7 +3450,7 @@
         <v>15</v>
       </c>
       <c r="G44" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H44" s="4">
         <v>5</v>
@@ -3491,7 +3503,7 @@
         <v>15</v>
       </c>
       <c r="G45" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H45" s="4">
         <v>5</v>
@@ -3544,7 +3556,7 @@
         <v>15</v>
       </c>
       <c r="G46" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H46" s="4">
         <v>5</v>
@@ -3597,7 +3609,7 @@
         <v>15</v>
       </c>
       <c r="G47" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H47" s="4">
         <v>5</v>
@@ -31326,18 +31338,18 @@
       <c r="AA1002" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L4:L5 B4:B5 A2:L3 A6:L1002">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="L4:L5 B4:B5 A2:L2 A48:L1002 A6:F47 H6:L47 A3:F3 H3:L3 G3:G47">
+    <cfRule type="expression" dxfId="50" priority="1">
       <formula>$K2="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L5 B4:B5 A2:L3 A6:L1002">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="L4:L5 B4:B5 A2:L2 A48:L1002 A6:F47 H6:L47 A3:F3 H3:L3 G3:G47">
+    <cfRule type="expression" dxfId="49" priority="2">
       <formula>$K2="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L5 B4:B5 A2:L3 A6:L1002">
-    <cfRule type="expression" dxfId="0" priority="3">
+  <conditionalFormatting sqref="L4:L5 B4:B5 A2:L2 A48:L1002 A6:F47 H6:L47 A3:F3 H3:L3 G3:G47">
+    <cfRule type="expression" dxfId="48" priority="3">
       <formula>$K2="main"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31353,18 +31365,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:H33 F28:J29">
-    <cfRule type="expression" dxfId="50" priority="5">
+  <conditionalFormatting sqref="F28:F33 H28:J29 H30:H33">
+    <cfRule type="expression" dxfId="47" priority="5">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:H33 F28:J29">
-    <cfRule type="expression" dxfId="49" priority="6">
+  <conditionalFormatting sqref="F28:F33 H28:J29 H30:H33">
+    <cfRule type="expression" dxfId="46" priority="6">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:H33 F28:J29">
-    <cfRule type="expression" dxfId="48" priority="7">
+  <conditionalFormatting sqref="F28:F33 H28:J29 H30:H33">
+    <cfRule type="expression" dxfId="45" priority="7">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31380,228 +31392,228 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:H40 F42:H43">
-    <cfRule type="expression" dxfId="47" priority="9">
+  <conditionalFormatting sqref="F34:F40 F42:F43 H42:H43 H34:H40">
+    <cfRule type="expression" dxfId="44" priority="9">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:H40 F42:H43">
-    <cfRule type="expression" dxfId="46" priority="10">
+  <conditionalFormatting sqref="F34:F40 F42:F43 H42:H43 H34:H40">
+    <cfRule type="expression" dxfId="43" priority="10">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:H40 F42:H43">
-    <cfRule type="expression" dxfId="45" priority="11">
+  <conditionalFormatting sqref="F34:F40 F42:F43 H42:H43 H34:H40">
+    <cfRule type="expression" dxfId="42" priority="11">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:H41">
-    <cfRule type="expression" dxfId="44" priority="12">
+  <conditionalFormatting sqref="F41 H41">
+    <cfRule type="expression" dxfId="41" priority="12">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:H41">
-    <cfRule type="expression" dxfId="43" priority="13">
+  <conditionalFormatting sqref="F41 H41">
+    <cfRule type="expression" dxfId="40" priority="13">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:H41">
-    <cfRule type="expression" dxfId="42" priority="14">
+  <conditionalFormatting sqref="F41 H41">
+    <cfRule type="expression" dxfId="39" priority="14">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:H44">
-    <cfRule type="expression" dxfId="41" priority="15">
+  <conditionalFormatting sqref="F44 H44">
+    <cfRule type="expression" dxfId="38" priority="15">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:H44">
-    <cfRule type="expression" dxfId="40" priority="16">
+  <conditionalFormatting sqref="F44 H44">
+    <cfRule type="expression" dxfId="37" priority="16">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:H44">
-    <cfRule type="expression" dxfId="39" priority="17">
+  <conditionalFormatting sqref="F44 H44">
+    <cfRule type="expression" dxfId="36" priority="17">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:H44">
-    <cfRule type="expression" dxfId="38" priority="18">
+  <conditionalFormatting sqref="F44 H44">
+    <cfRule type="expression" dxfId="35" priority="18">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:H44">
-    <cfRule type="expression" dxfId="37" priority="19">
+  <conditionalFormatting sqref="F44 H44">
+    <cfRule type="expression" dxfId="34" priority="19">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:H44">
-    <cfRule type="expression" dxfId="36" priority="20">
+  <conditionalFormatting sqref="F44 H44">
+    <cfRule type="expression" dxfId="33" priority="20">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45:H45">
-    <cfRule type="expression" dxfId="35" priority="21">
+  <conditionalFormatting sqref="F45 H45">
+    <cfRule type="expression" dxfId="32" priority="21">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45:H45">
-    <cfRule type="expression" dxfId="34" priority="22">
+  <conditionalFormatting sqref="F45 H45">
+    <cfRule type="expression" dxfId="31" priority="22">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45:H45">
-    <cfRule type="expression" dxfId="33" priority="23">
+  <conditionalFormatting sqref="F45 H45">
+    <cfRule type="expression" dxfId="30" priority="23">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45:H45">
-    <cfRule type="expression" dxfId="32" priority="24">
+  <conditionalFormatting sqref="F45 H45">
+    <cfRule type="expression" dxfId="29" priority="24">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45:H45">
-    <cfRule type="expression" dxfId="31" priority="25">
+  <conditionalFormatting sqref="F45 H45">
+    <cfRule type="expression" dxfId="28" priority="25">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45:H45">
-    <cfRule type="expression" dxfId="30" priority="26">
+  <conditionalFormatting sqref="F45 H45">
+    <cfRule type="expression" dxfId="27" priority="26">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46:H46">
-    <cfRule type="expression" dxfId="29" priority="27">
+  <conditionalFormatting sqref="F46 H46">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46:H46">
-    <cfRule type="expression" dxfId="28" priority="28">
+  <conditionalFormatting sqref="F46 H46">
+    <cfRule type="expression" dxfId="25" priority="28">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46:H46">
-    <cfRule type="expression" dxfId="27" priority="29">
+  <conditionalFormatting sqref="F46 H46">
+    <cfRule type="expression" dxfId="24" priority="29">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46:H46">
-    <cfRule type="expression" dxfId="26" priority="30">
+  <conditionalFormatting sqref="F46 H46">
+    <cfRule type="expression" dxfId="23" priority="30">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46:H46">
-    <cfRule type="expression" dxfId="25" priority="31">
+  <conditionalFormatting sqref="F46 H46">
+    <cfRule type="expression" dxfId="22" priority="31">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46:H46">
-    <cfRule type="expression" dxfId="24" priority="32">
+  <conditionalFormatting sqref="F46 H46">
+    <cfRule type="expression" dxfId="21" priority="32">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:H47">
-    <cfRule type="expression" dxfId="23" priority="33">
+  <conditionalFormatting sqref="F47 H47">
+    <cfRule type="expression" dxfId="20" priority="33">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:H47">
-    <cfRule type="expression" dxfId="22" priority="34">
+  <conditionalFormatting sqref="F47 H47">
+    <cfRule type="expression" dxfId="19" priority="34">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:H47">
-    <cfRule type="expression" dxfId="21" priority="35">
+  <conditionalFormatting sqref="F47 H47">
+    <cfRule type="expression" dxfId="18" priority="35">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:H47">
-    <cfRule type="expression" dxfId="20" priority="36">
+  <conditionalFormatting sqref="F47 H47">
+    <cfRule type="expression" dxfId="17" priority="36">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:H47">
-    <cfRule type="expression" dxfId="19" priority="37">
+  <conditionalFormatting sqref="F47 H47">
+    <cfRule type="expression" dxfId="16" priority="37">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:H47">
-    <cfRule type="expression" dxfId="18" priority="38">
+  <conditionalFormatting sqref="F47 H47">
+    <cfRule type="expression" dxfId="15" priority="38">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="17" priority="39">
+    <cfRule type="expression" dxfId="14" priority="39">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="16" priority="40">
+    <cfRule type="expression" dxfId="13" priority="40">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="15" priority="41">
+    <cfRule type="expression" dxfId="12" priority="41">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="14" priority="42">
+    <cfRule type="expression" dxfId="11" priority="42">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="13" priority="43">
+    <cfRule type="expression" dxfId="10" priority="43">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="12" priority="44">
+    <cfRule type="expression" dxfId="9" priority="44">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="11" priority="45">
+    <cfRule type="expression" dxfId="8" priority="45">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="10" priority="46">
+    <cfRule type="expression" dxfId="7" priority="46">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="9" priority="47">
+    <cfRule type="expression" dxfId="6" priority="47">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="8" priority="48">
+    <cfRule type="expression" dxfId="5" priority="48">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="7" priority="49">
+    <cfRule type="expression" dxfId="4" priority="49">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="6" priority="50">
+    <cfRule type="expression" dxfId="3" priority="50">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:J5">
-    <cfRule type="expression" dxfId="5" priority="52">
+  <conditionalFormatting sqref="A4:F5 H4:J5">
+    <cfRule type="expression" dxfId="2" priority="52">
       <formula>$L4="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:J5">
-    <cfRule type="expression" dxfId="4" priority="55">
+  <conditionalFormatting sqref="A4:F5 H4:J5">
+    <cfRule type="expression" dxfId="1" priority="55">
       <formula>$L4="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:J5">
-    <cfRule type="expression" dxfId="3" priority="58">
+  <conditionalFormatting sqref="A4:F5 H4:J5">
+    <cfRule type="expression" dxfId="0" priority="58">
       <formula>$L4="main"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/dataset/19_ROIs.xlsx
+++ b/dataset/19_ROIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\TemporalGAN\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358832CA-7546-41B1-B11C-EA7117BECEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554FE45A-CE8E-46C5-8C28-A7A0EEB146FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="125">
   <si>
     <t>name</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>('2019-03-07','2019-06-07')</t>
+  </si>
+  <si>
+    <t>('2019-06-07','2019-09-07')</t>
   </si>
 </sst>
 </file>
@@ -1115,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2481,7 +2484,7 @@
         <v>64</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>25</v>
@@ -2490,7 +2493,7 @@
         <v>15</v>
       </c>
       <c r="G26" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H26" s="4">
         <v>5</v>
@@ -2536,7 +2539,7 @@
         <v>67</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>25</v>
@@ -2545,7 +2548,7 @@
         <v>15</v>
       </c>
       <c r="G27" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H27" s="4">
         <v>5</v>

--- a/dataset/19_ROIs.xlsx
+++ b/dataset/19_ROIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\TemporalGAN\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554FE45A-CE8E-46C5-8C28-A7A0EEB146FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05912DF-7424-4446-AA37-3157598BE2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="128">
   <si>
     <t>name</t>
   </si>
@@ -378,9 +378,6 @@
     <t>aguasclaras</t>
   </si>
   <si>
-    <t>('2021-06-07','2021-07-07')</t>
-  </si>
-  <si>
     <t>aguasclaras_buffed</t>
   </si>
   <si>
@@ -400,6 +397,18 @@
   </si>
   <si>
     <t>('2019-06-07','2019-09-07')</t>
+  </si>
+  <si>
+    <t>[[[54.540252685546875,24.291407914292037],[54.61406707763672,24.291407914292037],[54.61406707763672,24.366488081551143],[54.540252685546875,24.366488081551143],[54.540252685546875,24.291407914292037]]]</t>
+  </si>
+  <si>
+    <t>[[[54.453049, 24.297666], [54.453049, 24.444649], [54.700241, 24.444649], [54.700241, 24.297666], [54.453049, 24.297666]]]</t>
+  </si>
+  <si>
+    <t>('2019-05-07','2019-07-17')</t>
+  </si>
+  <si>
+    <t>[[[55.201492, 25.149014], [55.201492, 25.287542], [55.440445, 25.287542], [55.440445, 25.149014], [55.201492, 25.149014]]]</t>
   </si>
 </sst>
 </file>
@@ -471,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -492,6 +501,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1119,14 +1129,14 @@
   <dimension ref="A1:AA1002"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.5546875" customWidth="1"/>
     <col min="2" max="2" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" customWidth="1"/>
     <col min="4" max="4" width="31.6640625" customWidth="1"/>
     <col min="5" max="5" width="24.33203125" customWidth="1"/>
     <col min="6" max="6" width="12.88671875" customWidth="1"/>
@@ -1201,7 +1211,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>110</v>
@@ -1254,7 +1264,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>110</v>
@@ -1299,7 +1309,7 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>116</v>
       </c>
@@ -1310,7 +1320,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>14</v>
@@ -1330,7 +1340,7 @@
       <c r="J4" s="4">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="L4" s="6" t="s">
@@ -1352,9 +1362,9 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" s="4">
         <v>19</v>
@@ -1363,7 +1373,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>14</v>
@@ -1383,7 +1393,7 @@
       <c r="J5" s="4">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L5" s="6" t="s">
@@ -1469,7 +1479,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>25</v>
@@ -1522,7 +1532,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>25</v>
@@ -2060,7 +2070,7 @@
         <v>49</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>25</v>
@@ -2113,7 +2123,7 @@
         <v>51</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>25</v>
@@ -2122,7 +2132,7 @@
         <v>15</v>
       </c>
       <c r="G19" s="4">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H19" s="4">
         <v>5</v>
@@ -2166,7 +2176,7 @@
         <v>53</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>14</v>
@@ -2219,7 +2229,7 @@
         <v>55</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>14</v>
@@ -2428,7 +2438,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>110</v>
@@ -2484,7 +2494,7 @@
         <v>64</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>25</v>
@@ -2539,7 +2549,7 @@
         <v>67</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>25</v>
@@ -2912,7 +2922,7 @@
         <v>82</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>14</v>
@@ -2921,7 +2931,7 @@
         <v>15</v>
       </c>
       <c r="G34" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H34" s="4">
         <v>5</v>
@@ -2965,7 +2975,7 @@
         <v>84</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>14</v>
@@ -2974,7 +2984,7 @@
         <v>15</v>
       </c>
       <c r="G35" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H35" s="4">
         <v>5</v>
@@ -3177,7 +3187,7 @@
         <v>92</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>14</v>
@@ -3186,7 +3196,7 @@
         <v>15</v>
       </c>
       <c r="G39" s="4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H39" s="4">
         <v>5</v>
@@ -31341,23 +31351,23 @@
       <c r="AA1002" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L4:L5 B4:B5 A2:L2 A48:L1002 A6:F47 H6:L47 A3:F3 H3:L3 G3:G47">
-    <cfRule type="expression" dxfId="50" priority="1">
+  <conditionalFormatting sqref="A2:L3 A6:L1002">
+    <cfRule type="expression" dxfId="50" priority="6">
       <formula>$K2="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L5 B4:B5 A2:L2 A48:L1002 A6:F47 H6:L47 A3:F3 H3:L3 G3:G47">
-    <cfRule type="expression" dxfId="49" priority="2">
+  <conditionalFormatting sqref="A2:L3 A6:L1002">
+    <cfRule type="expression" dxfId="49" priority="7">
       <formula>$K2="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L5 B4:B5 A2:L2 A48:L1002 A6:F47 H6:L47 A3:F3 H3:L3 G3:G47">
-    <cfRule type="expression" dxfId="48" priority="3">
+  <conditionalFormatting sqref="A2:L3 A6:L1002">
+    <cfRule type="expression" dxfId="48" priority="8">
       <formula>$K2="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1002">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="B1:B3 B6:B1002">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31369,22 +31379,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:F33 H28:J29 H30:H33">
-    <cfRule type="expression" dxfId="47" priority="5">
+    <cfRule type="expression" dxfId="47" priority="10">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:F33 H28:J29 H30:H33">
-    <cfRule type="expression" dxfId="46" priority="6">
+    <cfRule type="expression" dxfId="46" priority="11">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:F33 H28:J29 H30:H33">
-    <cfRule type="expression" dxfId="45" priority="7">
+    <cfRule type="expression" dxfId="45" priority="12">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1002">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="B1:B3 B6:B1002">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31396,228 +31406,252 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F40 F42:F43 H42:H43 H34:H40">
-    <cfRule type="expression" dxfId="44" priority="9">
+    <cfRule type="expression" dxfId="44" priority="14">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F40 F42:F43 H42:H43 H34:H40">
-    <cfRule type="expression" dxfId="43" priority="10">
+    <cfRule type="expression" dxfId="43" priority="15">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F40 F42:F43 H42:H43 H34:H40">
-    <cfRule type="expression" dxfId="42" priority="11">
+    <cfRule type="expression" dxfId="42" priority="16">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41 H41">
-    <cfRule type="expression" dxfId="41" priority="12">
+    <cfRule type="expression" dxfId="41" priority="17">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41 H41">
-    <cfRule type="expression" dxfId="40" priority="13">
+    <cfRule type="expression" dxfId="40" priority="18">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41 H41">
-    <cfRule type="expression" dxfId="39" priority="14">
+    <cfRule type="expression" dxfId="39" priority="19">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44 H44">
-    <cfRule type="expression" dxfId="38" priority="15">
+    <cfRule type="expression" dxfId="38" priority="20">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44 H44">
-    <cfRule type="expression" dxfId="37" priority="16">
+    <cfRule type="expression" dxfId="37" priority="21">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44 H44">
-    <cfRule type="expression" dxfId="36" priority="17">
+    <cfRule type="expression" dxfId="36" priority="22">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44 H44">
-    <cfRule type="expression" dxfId="35" priority="18">
+    <cfRule type="expression" dxfId="35" priority="23">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44 H44">
-    <cfRule type="expression" dxfId="34" priority="19">
+    <cfRule type="expression" dxfId="34" priority="24">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44 H44">
-    <cfRule type="expression" dxfId="33" priority="20">
+    <cfRule type="expression" dxfId="33" priority="25">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45 H45">
-    <cfRule type="expression" dxfId="32" priority="21">
+    <cfRule type="expression" dxfId="32" priority="26">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45 H45">
-    <cfRule type="expression" dxfId="31" priority="22">
+    <cfRule type="expression" dxfId="31" priority="27">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45 H45">
-    <cfRule type="expression" dxfId="30" priority="23">
+    <cfRule type="expression" dxfId="30" priority="28">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45 H45">
-    <cfRule type="expression" dxfId="29" priority="24">
+    <cfRule type="expression" dxfId="29" priority="29">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45 H45">
-    <cfRule type="expression" dxfId="28" priority="25">
+    <cfRule type="expression" dxfId="28" priority="30">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45 H45">
-    <cfRule type="expression" dxfId="27" priority="26">
+    <cfRule type="expression" dxfId="27" priority="31">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 H46">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="26" priority="32">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 H46">
-    <cfRule type="expression" dxfId="25" priority="28">
+    <cfRule type="expression" dxfId="25" priority="33">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 H46">
-    <cfRule type="expression" dxfId="24" priority="29">
+    <cfRule type="expression" dxfId="24" priority="34">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 H46">
-    <cfRule type="expression" dxfId="23" priority="30">
+    <cfRule type="expression" dxfId="23" priority="35">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 H46">
-    <cfRule type="expression" dxfId="22" priority="31">
+    <cfRule type="expression" dxfId="22" priority="36">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 H46">
-    <cfRule type="expression" dxfId="21" priority="32">
+    <cfRule type="expression" dxfId="21" priority="37">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47 H47">
-    <cfRule type="expression" dxfId="20" priority="33">
+    <cfRule type="expression" dxfId="20" priority="38">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47 H47">
-    <cfRule type="expression" dxfId="19" priority="34">
+    <cfRule type="expression" dxfId="19" priority="39">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47 H47">
-    <cfRule type="expression" dxfId="18" priority="35">
+    <cfRule type="expression" dxfId="18" priority="40">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47 H47">
-    <cfRule type="expression" dxfId="17" priority="36">
+    <cfRule type="expression" dxfId="17" priority="41">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47 H47">
-    <cfRule type="expression" dxfId="16" priority="37">
+    <cfRule type="expression" dxfId="16" priority="42">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47 H47">
-    <cfRule type="expression" dxfId="15" priority="38">
+    <cfRule type="expression" dxfId="15" priority="43">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="14" priority="39">
+    <cfRule type="expression" dxfId="14" priority="44">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="13" priority="40">
+    <cfRule type="expression" dxfId="13" priority="45">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="12" priority="41">
+    <cfRule type="expression" dxfId="12" priority="46">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="11" priority="42">
+    <cfRule type="expression" dxfId="11" priority="47">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="10" priority="43">
+    <cfRule type="expression" dxfId="10" priority="48">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="9" priority="44">
+    <cfRule type="expression" dxfId="9" priority="49">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="8" priority="45">
+    <cfRule type="expression" dxfId="8" priority="50">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="7" priority="46">
+    <cfRule type="expression" dxfId="7" priority="51">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="6" priority="47">
+    <cfRule type="expression" dxfId="6" priority="52">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="5" priority="48">
+    <cfRule type="expression" dxfId="5" priority="53">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="4" priority="49">
+    <cfRule type="expression" dxfId="4" priority="54">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="3" priority="50">
+    <cfRule type="expression" dxfId="3" priority="55">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:F5 H4:J5">
-    <cfRule type="expression" dxfId="2" priority="52">
-      <formula>$L4="adj"</formula>
+  <conditionalFormatting sqref="A4:L5">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>$K4="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:F5 H4:J5">
-    <cfRule type="expression" dxfId="1" priority="55">
-      <formula>$L4="buff"</formula>
+  <conditionalFormatting sqref="A4:L5">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$K4="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:F5 H4:J5">
-    <cfRule type="expression" dxfId="0" priority="58">
-      <formula>$L4="main"</formula>
+  <conditionalFormatting sqref="A4:L5">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$K4="main"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B5">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B5">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFC000"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF7030A0"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/dataset/19_ROIs.xlsx
+++ b/dataset/19_ROIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\TemporalGAN\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05912DF-7424-4446-AA37-3157598BE2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2532C2DC-88CD-439E-8941-AD8CF376F7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,7 +506,425 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="103">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1128,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -31352,22 +31770,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:L3 A6:L1002">
-    <cfRule type="expression" dxfId="50" priority="6">
+    <cfRule type="expression" dxfId="102" priority="7">
       <formula>$K2="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:L3 A6:L1002">
-    <cfRule type="expression" dxfId="49" priority="7">
+    <cfRule type="expression" dxfId="101" priority="8">
       <formula>$K2="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:L3 A6:L1002">
-    <cfRule type="expression" dxfId="48" priority="8">
+    <cfRule type="expression" dxfId="100" priority="9">
       <formula>$K2="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B3 B6:B1002">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31379,22 +31797,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:F33 H28:J29 H30:H33">
-    <cfRule type="expression" dxfId="47" priority="10">
+    <cfRule type="expression" dxfId="99" priority="11">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:F33 H28:J29 H30:H33">
-    <cfRule type="expression" dxfId="46" priority="11">
+    <cfRule type="expression" dxfId="98" priority="12">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:F33 H28:J29 H30:H33">
-    <cfRule type="expression" dxfId="45" priority="12">
+    <cfRule type="expression" dxfId="97" priority="13">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B3 B6:B1002">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31406,232 +31824,232 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F40 F42:F43 H42:H43 H34:H40">
-    <cfRule type="expression" dxfId="44" priority="14">
+    <cfRule type="expression" dxfId="96" priority="15">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F40 F42:F43 H42:H43 H34:H40">
-    <cfRule type="expression" dxfId="43" priority="15">
+    <cfRule type="expression" dxfId="95" priority="16">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F40 F42:F43 H42:H43 H34:H40">
-    <cfRule type="expression" dxfId="42" priority="16">
+    <cfRule type="expression" dxfId="94" priority="17">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41 H41">
-    <cfRule type="expression" dxfId="41" priority="17">
+    <cfRule type="expression" dxfId="93" priority="18">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41 H41">
-    <cfRule type="expression" dxfId="40" priority="18">
+    <cfRule type="expression" dxfId="92" priority="19">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41 H41">
-    <cfRule type="expression" dxfId="39" priority="19">
+    <cfRule type="expression" dxfId="91" priority="20">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44 H44">
-    <cfRule type="expression" dxfId="38" priority="20">
+    <cfRule type="expression" dxfId="90" priority="21">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44 H44">
-    <cfRule type="expression" dxfId="37" priority="21">
+    <cfRule type="expression" dxfId="89" priority="22">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44 H44">
-    <cfRule type="expression" dxfId="36" priority="22">
+    <cfRule type="expression" dxfId="88" priority="23">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44 H44">
-    <cfRule type="expression" dxfId="35" priority="23">
+    <cfRule type="expression" dxfId="87" priority="24">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44 H44">
-    <cfRule type="expression" dxfId="34" priority="24">
+    <cfRule type="expression" dxfId="86" priority="25">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44 H44">
-    <cfRule type="expression" dxfId="33" priority="25">
+    <cfRule type="expression" dxfId="85" priority="26">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45 H45">
-    <cfRule type="expression" dxfId="32" priority="26">
+    <cfRule type="expression" dxfId="84" priority="27">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45 H45">
-    <cfRule type="expression" dxfId="31" priority="27">
+    <cfRule type="expression" dxfId="83" priority="28">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45 H45">
-    <cfRule type="expression" dxfId="30" priority="28">
+    <cfRule type="expression" dxfId="82" priority="29">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45 H45">
-    <cfRule type="expression" dxfId="29" priority="29">
+    <cfRule type="expression" dxfId="81" priority="30">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45 H45">
-    <cfRule type="expression" dxfId="28" priority="30">
+    <cfRule type="expression" dxfId="80" priority="31">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45 H45">
-    <cfRule type="expression" dxfId="27" priority="31">
+    <cfRule type="expression" dxfId="79" priority="32">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 H46">
-    <cfRule type="expression" dxfId="26" priority="32">
+    <cfRule type="expression" dxfId="78" priority="33">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 H46">
-    <cfRule type="expression" dxfId="25" priority="33">
+    <cfRule type="expression" dxfId="77" priority="34">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 H46">
-    <cfRule type="expression" dxfId="24" priority="34">
+    <cfRule type="expression" dxfId="76" priority="35">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 H46">
-    <cfRule type="expression" dxfId="23" priority="35">
+    <cfRule type="expression" dxfId="75" priority="36">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 H46">
-    <cfRule type="expression" dxfId="22" priority="36">
+    <cfRule type="expression" dxfId="74" priority="37">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 H46">
-    <cfRule type="expression" dxfId="21" priority="37">
+    <cfRule type="expression" dxfId="73" priority="38">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47 H47">
-    <cfRule type="expression" dxfId="20" priority="38">
+    <cfRule type="expression" dxfId="72" priority="39">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47 H47">
-    <cfRule type="expression" dxfId="19" priority="39">
+    <cfRule type="expression" dxfId="71" priority="40">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47 H47">
-    <cfRule type="expression" dxfId="18" priority="40">
+    <cfRule type="expression" dxfId="70" priority="41">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47 H47">
-    <cfRule type="expression" dxfId="17" priority="41">
+    <cfRule type="expression" dxfId="69" priority="42">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47 H47">
-    <cfRule type="expression" dxfId="16" priority="42">
+    <cfRule type="expression" dxfId="68" priority="43">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47 H47">
-    <cfRule type="expression" dxfId="15" priority="43">
+    <cfRule type="expression" dxfId="67" priority="44">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="14" priority="44">
+    <cfRule type="expression" dxfId="66" priority="45">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="13" priority="45">
+    <cfRule type="expression" dxfId="65" priority="46">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="12" priority="46">
+    <cfRule type="expression" dxfId="64" priority="47">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="11" priority="47">
+    <cfRule type="expression" dxfId="63" priority="48">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="10" priority="48">
+    <cfRule type="expression" dxfId="62" priority="49">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="9" priority="49">
+    <cfRule type="expression" dxfId="61" priority="50">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="8" priority="50">
+    <cfRule type="expression" dxfId="60" priority="51">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="7" priority="51">
+    <cfRule type="expression" dxfId="59" priority="52">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="6" priority="52">
+    <cfRule type="expression" dxfId="58" priority="53">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="5" priority="53">
+    <cfRule type="expression" dxfId="57" priority="54">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="4" priority="54">
+    <cfRule type="expression" dxfId="56" priority="55">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="3" priority="55">
+    <cfRule type="expression" dxfId="55" priority="56">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L5">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="54" priority="6">
       <formula>$K4="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L5">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="53" priority="5">
       <formula>$K4="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L5">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="52" priority="4">
       <formula>$K4="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="colorScale" priority="56">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31643,7 +32061,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="colorScale" priority="57">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31654,6 +32072,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/dataset/19_ROIs.xlsx
+++ b/dataset/19_ROIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\TemporalGAN\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2532C2DC-88CD-439E-8941-AD8CF376F7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215FEB79-40E6-4FEB-A843-5138021E0205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="125">
   <si>
     <t>name</t>
   </si>
@@ -109,12 +109,6 @@
   </si>
   <si>
     <t>[[[109.386406, 21.472559], [109.386406, 21.616579], [109.556351, 21.616579], [109.556351, 21.472559], [109.386406, 21.472559]]]</t>
-  </si>
-  <si>
-    <t>beihai_adj_gaoqiazhen</t>
-  </si>
-  <si>
-    <t>[[[109.632225, 21.592639], [109.632225, 21.756311], [109.816246, 21.756311], [109.816246, 21.592639], [109.632225, 21.592639]]]</t>
   </si>
   <si>
     <t>beirut</t>
@@ -360,9 +354,6 @@
     <t>('2019-06-07','2019-07-07')</t>
   </si>
   <si>
-    <t>('2019-08-07','2019-09-07')</t>
-  </si>
-  <si>
     <t>('2019-07-07','2019-08-07')</t>
   </si>
   <si>
@@ -506,7 +497,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="103">
+  <dxfs count="52">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -514,414 +505,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1544,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA1002"/>
+  <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1601,7 +1184,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>11</v>
@@ -1629,10 +1212,10 @@
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>14</v>
@@ -1656,7 +1239,7 @@
         <v>16</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -1682,10 +1265,10 @@
         <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>14</v>
@@ -1709,7 +1292,7 @@
         <v>19</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -1729,7 +1312,7 @@
     </row>
     <row r="4" spans="1:27" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B4" s="4">
         <v>19</v>
@@ -1738,7 +1321,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>14</v>
@@ -1762,7 +1345,7 @@
         <v>16</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -1782,7 +1365,7 @@
     </row>
     <row r="5" spans="1:27" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B5" s="4">
         <v>19</v>
@@ -1791,7 +1374,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>14</v>
@@ -1815,7 +1398,7 @@
         <v>19</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -1844,7 +1427,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>14</v>
@@ -1868,7 +1451,7 @@
         <v>22</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -1897,7 +1480,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>25</v>
@@ -1921,7 +1504,7 @@
         <v>16</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -1950,7 +1533,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>25</v>
@@ -1974,7 +1557,7 @@
         <v>19</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -2003,7 +1586,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>25</v>
@@ -2024,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -2056,7 +1639,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>25</v>
@@ -2077,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -2109,10 +1692,10 @@
         <v>33</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>15</v>
@@ -2130,12 +1713,14 @@
         <v>0</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="M11" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -2153,16 +1738,16 @@
     </row>
     <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="4">
         <v>19</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>14</v>
@@ -2183,13 +1768,13 @@
         <v>0</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -2217,7 +1802,7 @@
         <v>38</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>14</v>
@@ -2238,13 +1823,13 @@
         <v>0</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -2263,16 +1848,16 @@
     </row>
     <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="4">
         <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>14</v>
@@ -2293,13 +1878,13 @@
         <v>0</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -2327,7 +1912,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>14</v>
@@ -2345,17 +1930,15 @@
         <v>1</v>
       </c>
       <c r="J15" s="4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -2382,7 +1965,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>14</v>
@@ -2403,10 +1986,10 @@
         <v>18</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -2435,16 +2018,16 @@
         <v>47</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="4">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H17" s="4">
         <v>5</v>
@@ -2456,10 +2039,10 @@
         <v>18</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -2509,10 +2092,10 @@
         <v>18</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -2541,10 +2124,10 @@
         <v>51</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>15</v>
@@ -2559,13 +2142,13 @@
         <v>1</v>
       </c>
       <c r="J19" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -2594,7 +2177,7 @@
         <v>53</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>14</v>
@@ -2615,10 +2198,10 @@
         <v>0</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -2647,7 +2230,7 @@
         <v>55</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>14</v>
@@ -2656,7 +2239,7 @@
         <v>15</v>
       </c>
       <c r="G21" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H21" s="4">
         <v>5</v>
@@ -2668,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -2700,7 +2283,7 @@
         <v>57</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>14</v>
@@ -2718,13 +2301,13 @@
         <v>1</v>
       </c>
       <c r="J22" s="4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -2753,7 +2336,7 @@
         <v>59</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>14</v>
@@ -2774,10 +2357,10 @@
         <v>18</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -2803,10 +2386,10 @@
         <v>19</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>14</v>
@@ -2827,10 +2410,10 @@
         <v>18</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -2850,25 +2433,25 @@
     </row>
     <row r="25" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="4">
         <v>19</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H25" s="4">
         <v>5</v>
@@ -2877,15 +2460,17 @@
         <v>1</v>
       </c>
       <c r="J25" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="M25" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
@@ -2903,16 +2488,16 @@
     </row>
     <row r="26" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B26" s="4">
         <v>19</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>25</v>
@@ -2933,14 +2518,12 @@
         <v>0</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -2967,16 +2550,16 @@
         <v>67</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G27" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H27" s="4">
         <v>5</v>
@@ -2985,13 +2568,13 @@
         <v>1</v>
       </c>
       <c r="J27" s="4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -3020,7 +2603,7 @@
         <v>69</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>14</v>
@@ -3041,12 +2624,14 @@
         <v>18</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="M28" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
@@ -3064,16 +2649,16 @@
     </row>
     <row r="29" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B29" s="4">
         <v>19</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>14</v>
@@ -3091,17 +2676,15 @@
         <v>1</v>
       </c>
       <c r="J29" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>72</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -3128,7 +2711,7 @@
         <v>74</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>14</v>
@@ -3149,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -3181,7 +2764,7 @@
         <v>76</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>14</v>
@@ -3202,10 +2785,10 @@
         <v>0</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -3234,7 +2817,7 @@
         <v>78</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>14</v>
@@ -3255,10 +2838,10 @@
         <v>0</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -3287,7 +2870,7 @@
         <v>80</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>14</v>
@@ -3296,7 +2879,7 @@
         <v>15</v>
       </c>
       <c r="G33" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H33" s="4">
         <v>5</v>
@@ -3308,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -3340,7 +2923,7 @@
         <v>82</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>14</v>
@@ -3361,10 +2944,10 @@
         <v>0</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -3393,7 +2976,7 @@
         <v>84</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>14</v>
@@ -3402,7 +2985,7 @@
         <v>15</v>
       </c>
       <c r="G35" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H35" s="4">
         <v>5</v>
@@ -3414,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -3446,7 +3029,7 @@
         <v>86</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>14</v>
@@ -3467,10 +3050,10 @@
         <v>0</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -3499,7 +3082,7 @@
         <v>88</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>14</v>
@@ -3520,10 +3103,10 @@
         <v>0</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -3552,7 +3135,7 @@
         <v>90</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>14</v>
@@ -3561,7 +3144,7 @@
         <v>15</v>
       </c>
       <c r="G38" s="4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H38" s="4">
         <v>5</v>
@@ -3576,7 +3159,7 @@
         <v>16</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
@@ -3605,7 +3188,7 @@
         <v>92</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>14</v>
@@ -3614,7 +3197,7 @@
         <v>15</v>
       </c>
       <c r="G39" s="4">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H39" s="4">
         <v>5</v>
@@ -3626,10 +3209,10 @@
         <v>0</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -3658,7 +3241,7 @@
         <v>94</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>14</v>
@@ -3679,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -3711,7 +3294,7 @@
         <v>96</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>14</v>
@@ -3735,7 +3318,7 @@
         <v>16</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
@@ -3764,7 +3347,7 @@
         <v>98</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>14</v>
@@ -3773,7 +3356,7 @@
         <v>15</v>
       </c>
       <c r="G42" s="4">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H42" s="4">
         <v>5</v>
@@ -3788,9 +3371,11 @@
         <v>16</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="M42" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
@@ -3808,16 +3393,16 @@
     </row>
     <row r="43" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B43" s="4">
         <v>19</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>14</v>
@@ -3826,7 +3411,7 @@
         <v>15</v>
       </c>
       <c r="G43" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H43" s="4">
         <v>5</v>
@@ -3841,11 +3426,9 @@
         <v>16</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>101</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
@@ -3872,7 +3455,7 @@
         <v>103</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>14</v>
@@ -3896,7 +3479,7 @@
         <v>16</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
@@ -3925,7 +3508,7 @@
         <v>105</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>14</v>
@@ -3949,7 +3532,7 @@
         <v>16</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
@@ -3978,7 +3561,7 @@
         <v>107</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>14</v>
@@ -3999,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
@@ -4021,42 +3604,18 @@
       <c r="AA46" s="4"/>
     </row>
     <row r="47" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B47" s="4">
-        <v>19</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H47" s="4">
-        <v>5</v>
-      </c>
-      <c r="I47" s="4">
-        <v>1</v>
-      </c>
-      <c r="J47" s="4">
-        <v>0</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>115</v>
-      </c>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
@@ -31739,312 +31298,259 @@
       <c r="Z1001" s="4"/>
       <c r="AA1001" s="4"/>
     </row>
-    <row r="1002" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1002" s="4"/>
-      <c r="B1002" s="4"/>
-      <c r="C1002" s="5"/>
-      <c r="D1002" s="4"/>
-      <c r="E1002" s="4"/>
-      <c r="F1002" s="6"/>
-      <c r="G1002" s="4"/>
-      <c r="H1002" s="4"/>
-      <c r="I1002" s="4"/>
-      <c r="J1002" s="4"/>
-      <c r="K1002" s="6"/>
-      <c r="L1002" s="6"/>
-      <c r="M1002" s="4"/>
-      <c r="N1002" s="4"/>
-      <c r="O1002" s="4"/>
-      <c r="P1002" s="4"/>
-      <c r="Q1002" s="4"/>
-      <c r="R1002" s="4"/>
-      <c r="S1002" s="4"/>
-      <c r="T1002" s="4"/>
-      <c r="U1002" s="4"/>
-      <c r="V1002" s="4"/>
-      <c r="W1002" s="4"/>
-      <c r="X1002" s="4"/>
-      <c r="Y1002" s="4"/>
-      <c r="Z1002" s="4"/>
-      <c r="AA1002" s="4"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:L3 A6:L1002">
-    <cfRule type="expression" dxfId="102" priority="7">
+  <conditionalFormatting sqref="A2:L3 A6:L1001">
+    <cfRule type="expression" dxfId="51" priority="7">
       <formula>$K2="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:L3 A6:L1002">
-    <cfRule type="expression" dxfId="101" priority="8">
+  <conditionalFormatting sqref="A2:L3 A6:L1001">
+    <cfRule type="expression" dxfId="50" priority="8">
       <formula>$K2="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:L3 A6:L1002">
-    <cfRule type="expression" dxfId="100" priority="9">
+  <conditionalFormatting sqref="A2:L3 A6:L1001">
+    <cfRule type="expression" dxfId="49" priority="9">
       <formula>$K2="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3 B6:B1002">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28:F33 H28:J29 H30:H33">
-    <cfRule type="expression" dxfId="99" priority="11">
+  <conditionalFormatting sqref="F27:F32 H27:J28 H29:H32">
+    <cfRule type="expression" dxfId="48" priority="11">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:F33 H28:J29 H30:H33">
-    <cfRule type="expression" dxfId="98" priority="12">
+  <conditionalFormatting sqref="F27:F32 H27:J28 H29:H32">
+    <cfRule type="expression" dxfId="47" priority="12">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:F33 H28:J29 H30:H33">
-    <cfRule type="expression" dxfId="97" priority="13">
+  <conditionalFormatting sqref="F27:F32 H27:J28 H29:H32">
+    <cfRule type="expression" dxfId="46" priority="13">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3 B6:B1002">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFC000"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF7030A0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F40 F42:F43 H42:H43 H34:H40">
-    <cfRule type="expression" dxfId="96" priority="15">
+  <conditionalFormatting sqref="F33:F39 F41:F42 H41:H42 H33:H39">
+    <cfRule type="expression" dxfId="45" priority="15">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F40 F42:F43 H42:H43 H34:H40">
-    <cfRule type="expression" dxfId="95" priority="16">
+  <conditionalFormatting sqref="F33:F39 F41:F42 H41:H42 H33:H39">
+    <cfRule type="expression" dxfId="44" priority="16">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F40 F42:F43 H42:H43 H34:H40">
-    <cfRule type="expression" dxfId="94" priority="17">
+  <conditionalFormatting sqref="F33:F39 F41:F42 H41:H42 H33:H39">
+    <cfRule type="expression" dxfId="43" priority="17">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41 H41">
-    <cfRule type="expression" dxfId="93" priority="18">
+  <conditionalFormatting sqref="F40 H40">
+    <cfRule type="expression" dxfId="42" priority="18">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41 H41">
-    <cfRule type="expression" dxfId="92" priority="19">
+  <conditionalFormatting sqref="F40 H40">
+    <cfRule type="expression" dxfId="41" priority="19">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41 H41">
-    <cfRule type="expression" dxfId="91" priority="20">
+  <conditionalFormatting sqref="F40 H40">
+    <cfRule type="expression" dxfId="40" priority="20">
+      <formula>#REF!="main"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43 H43">
+    <cfRule type="expression" dxfId="39" priority="21">
+      <formula>#REF!="adj"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43 H43">
+    <cfRule type="expression" dxfId="38" priority="22">
+      <formula>#REF!="buff"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43 H43">
+    <cfRule type="expression" dxfId="37" priority="23">
+      <formula>#REF!="main"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43 H43">
+    <cfRule type="expression" dxfId="36" priority="24">
+      <formula>#REF!="adj"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43 H43">
+    <cfRule type="expression" dxfId="35" priority="25">
+      <formula>#REF!="buff"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43 H43">
+    <cfRule type="expression" dxfId="34" priority="26">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44 H44">
-    <cfRule type="expression" dxfId="90" priority="21">
+    <cfRule type="expression" dxfId="33" priority="27">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44 H44">
-    <cfRule type="expression" dxfId="89" priority="22">
+    <cfRule type="expression" dxfId="32" priority="28">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44 H44">
-    <cfRule type="expression" dxfId="88" priority="23">
+    <cfRule type="expression" dxfId="31" priority="29">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44 H44">
-    <cfRule type="expression" dxfId="87" priority="24">
+    <cfRule type="expression" dxfId="30" priority="30">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44 H44">
-    <cfRule type="expression" dxfId="86" priority="25">
+    <cfRule type="expression" dxfId="29" priority="31">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44 H44">
-    <cfRule type="expression" dxfId="85" priority="26">
+    <cfRule type="expression" dxfId="28" priority="32">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45 H45">
-    <cfRule type="expression" dxfId="84" priority="27">
+    <cfRule type="expression" dxfId="27" priority="33">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45 H45">
-    <cfRule type="expression" dxfId="83" priority="28">
+    <cfRule type="expression" dxfId="26" priority="34">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45 H45">
-    <cfRule type="expression" dxfId="82" priority="29">
+    <cfRule type="expression" dxfId="25" priority="35">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45 H45">
-    <cfRule type="expression" dxfId="81" priority="30">
+    <cfRule type="expression" dxfId="24" priority="36">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45 H45">
-    <cfRule type="expression" dxfId="80" priority="31">
+    <cfRule type="expression" dxfId="23" priority="37">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45 H45">
-    <cfRule type="expression" dxfId="79" priority="32">
+    <cfRule type="expression" dxfId="22" priority="38">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 H46">
-    <cfRule type="expression" dxfId="78" priority="33">
+    <cfRule type="expression" dxfId="21" priority="39">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 H46">
-    <cfRule type="expression" dxfId="77" priority="34">
+    <cfRule type="expression" dxfId="20" priority="40">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 H46">
-    <cfRule type="expression" dxfId="76" priority="35">
+    <cfRule type="expression" dxfId="19" priority="41">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 H46">
-    <cfRule type="expression" dxfId="75" priority="36">
+    <cfRule type="expression" dxfId="18" priority="42">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 H46">
-    <cfRule type="expression" dxfId="74" priority="37">
+    <cfRule type="expression" dxfId="17" priority="43">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 H46">
-    <cfRule type="expression" dxfId="73" priority="38">
+    <cfRule type="expression" dxfId="16" priority="44">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47 H47">
-    <cfRule type="expression" dxfId="72" priority="39">
+  <conditionalFormatting sqref="F47:H47">
+    <cfRule type="expression" dxfId="15" priority="45">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47 H47">
-    <cfRule type="expression" dxfId="71" priority="40">
+  <conditionalFormatting sqref="F47:H47">
+    <cfRule type="expression" dxfId="14" priority="46">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47 H47">
-    <cfRule type="expression" dxfId="70" priority="41">
+  <conditionalFormatting sqref="F47:H47">
+    <cfRule type="expression" dxfId="13" priority="47">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47 H47">
-    <cfRule type="expression" dxfId="69" priority="42">
+  <conditionalFormatting sqref="F47:H47">
+    <cfRule type="expression" dxfId="12" priority="48">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47 H47">
-    <cfRule type="expression" dxfId="68" priority="43">
+  <conditionalFormatting sqref="F47:H47">
+    <cfRule type="expression" dxfId="11" priority="49">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47 H47">
-    <cfRule type="expression" dxfId="67" priority="44">
+  <conditionalFormatting sqref="F47:H47">
+    <cfRule type="expression" dxfId="10" priority="50">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="66" priority="45">
+    <cfRule type="expression" dxfId="9" priority="51">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="65" priority="46">
+    <cfRule type="expression" dxfId="8" priority="52">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="64" priority="47">
+    <cfRule type="expression" dxfId="7" priority="53">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="63" priority="48">
+    <cfRule type="expression" dxfId="6" priority="54">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="62" priority="49">
+    <cfRule type="expression" dxfId="5" priority="55">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="61" priority="50">
-      <formula>#REF!="main"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="60" priority="51">
-      <formula>#REF!="adj"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="59" priority="52">
-      <formula>#REF!="buff"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="58" priority="53">
-      <formula>#REF!="main"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="57" priority="54">
-      <formula>#REF!="adj"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="56" priority="55">
-      <formula>#REF!="buff"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="55" priority="56">
+    <cfRule type="expression" dxfId="4" priority="56">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L5">
-    <cfRule type="expression" dxfId="54" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$K4="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L5">
-    <cfRule type="expression" dxfId="53" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>$K4="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L5">
-    <cfRule type="expression" dxfId="52" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>$K4="main"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32075,6 +31581,30 @@
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3 B6:B1001">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3 B6:B1001">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFC000"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF7030A0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/dataset/19_ROIs.xlsx
+++ b/dataset/19_ROIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\TemporalGAN\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215FEB79-40E6-4FEB-A843-5138021E0205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE3DAA0-E42F-4F67-9110-418B9B2584A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>abudhabi_buffed</t>
-  </si>
-  <si>
-    <t>[[[-48.170776, -15.884206], [-48.170776, -15.765294], [-47.870397, -15.765294], [-47.870397, -15.884206], [-48.170776, -15.884206]]]</t>
   </si>
   <si>
     <t>buff</t>
@@ -400,6 +397,9 @@
   </si>
   <si>
     <t>[[[55.201492, 25.149014], [55.201492, 25.287542], [55.440445, 25.287542], [55.440445, 25.149014], [55.201492, 25.149014]]]</t>
+  </si>
+  <si>
+    <t>[[[-48.170776,-15.765294],[-48.170776,-15.884206],[-47.9136556669922,-15.884206],[-47.9136556669922,-15.765294]]]</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1130,7 @@
   <dimension ref="A1:AA1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1184,7 +1184,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>11</v>
@@ -1212,10 +1212,10 @@
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>14</v>
@@ -1239,7 +1239,7 @@
         <v>16</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -1265,10 +1265,10 @@
         <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>14</v>
@@ -1289,10 +1289,10 @@
         <v>18</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="4" spans="1:27" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="4">
         <v>19</v>
@@ -1321,7 +1321,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>14</v>
@@ -1345,7 +1345,7 @@
         <v>16</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -1365,16 +1365,16 @@
     </row>
     <row r="5" spans="1:27" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="4">
         <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>14</v>
@@ -1395,10 +1395,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -1418,16 +1418,16 @@
     </row>
     <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4">
         <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>14</v>
@@ -1448,10 +1448,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -1471,19 +1471,19 @@
     </row>
     <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4">
         <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>15</v>
@@ -1504,7 +1504,7 @@
         <v>16</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -1524,19 +1524,19 @@
     </row>
     <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="4">
         <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>15</v>
@@ -1554,10 +1554,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -1577,19 +1577,19 @@
     </row>
     <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4">
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>15</v>
@@ -1610,7 +1610,7 @@
         <v>16</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -1630,19 +1630,19 @@
     </row>
     <row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="4">
         <v>19</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>15</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -1683,16 +1683,16 @@
     </row>
     <row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="4">
         <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>14</v>
@@ -1716,10 +1716,10 @@
         <v>16</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1738,16 +1738,16 @@
     </row>
     <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="4">
         <v>19</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>14</v>
@@ -1768,13 +1768,13 @@
         <v>0</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1793,16 +1793,16 @@
     </row>
     <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="4">
         <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>14</v>
@@ -1826,10 +1826,10 @@
         <v>16</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1848,16 +1848,16 @@
     </row>
     <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="4">
         <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>14</v>
@@ -1878,13 +1878,13 @@
         <v>0</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -1903,16 +1903,16 @@
     </row>
     <row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="4">
         <v>19</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>14</v>
@@ -1936,7 +1936,7 @@
         <v>16</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -1956,16 +1956,16 @@
     </row>
     <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="4">
         <v>19</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>14</v>
@@ -1986,10 +1986,10 @@
         <v>18</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -2009,19 +2009,19 @@
     </row>
     <row r="17" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="4">
         <v>19</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>15</v>
@@ -2042,7 +2042,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -2062,19 +2062,19 @@
     </row>
     <row r="18" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="4">
         <v>19</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>15</v>
@@ -2092,10 +2092,10 @@
         <v>18</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -2115,16 +2115,16 @@
     </row>
     <row r="19" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="4">
         <v>19</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>14</v>
@@ -2148,7 +2148,7 @@
         <v>16</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -2168,16 +2168,16 @@
     </row>
     <row r="20" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="4">
         <v>19</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>14</v>
@@ -2198,10 +2198,10 @@
         <v>0</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -2221,16 +2221,16 @@
     </row>
     <row r="21" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="4">
         <v>19</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>14</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -2274,16 +2274,16 @@
     </row>
     <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="4">
         <v>19</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>14</v>
@@ -2307,7 +2307,7 @@
         <v>16</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -2327,16 +2327,16 @@
     </row>
     <row r="23" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="4">
         <v>19</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>14</v>
@@ -2357,10 +2357,10 @@
         <v>18</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -2380,16 +2380,16 @@
     </row>
     <row r="24" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" s="4">
         <v>19</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>14</v>
@@ -2410,10 +2410,10 @@
         <v>18</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -2433,19 +2433,19 @@
     </row>
     <row r="25" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="4">
         <v>19</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>15</v>
@@ -2466,10 +2466,10 @@
         <v>16</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -2488,19 +2488,19 @@
     </row>
     <row r="26" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="4">
         <v>19</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>15</v>
@@ -2518,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -2541,16 +2541,16 @@
     </row>
     <row r="27" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="4">
         <v>19</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>14</v>
@@ -2574,7 +2574,7 @@
         <v>16</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -2594,16 +2594,16 @@
     </row>
     <row r="28" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" s="4">
         <v>19</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>14</v>
@@ -2624,13 +2624,13 @@
         <v>18</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -2649,16 +2649,16 @@
     </row>
     <row r="29" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="4">
         <v>19</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>14</v>
@@ -2682,7 +2682,7 @@
         <v>16</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -2702,16 +2702,16 @@
     </row>
     <row r="30" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" s="4">
         <v>19</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>14</v>
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -2755,16 +2755,16 @@
     </row>
     <row r="31" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="4">
         <v>19</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>14</v>
@@ -2788,7 +2788,7 @@
         <v>16</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -2808,16 +2808,16 @@
     </row>
     <row r="32" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" s="4">
         <v>19</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>14</v>
@@ -2838,10 +2838,10 @@
         <v>0</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -2861,16 +2861,16 @@
     </row>
     <row r="33" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B33" s="4">
         <v>19</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>14</v>
@@ -2894,7 +2894,7 @@
         <v>16</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -2914,16 +2914,16 @@
     </row>
     <row r="34" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34" s="4">
         <v>19</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>14</v>
@@ -2944,10 +2944,10 @@
         <v>0</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -2967,16 +2967,16 @@
     </row>
     <row r="35" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" s="4">
         <v>19</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>14</v>
@@ -3000,7 +3000,7 @@
         <v>16</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -3020,16 +3020,16 @@
     </row>
     <row r="36" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B36" s="4">
         <v>19</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>14</v>
@@ -3050,10 +3050,10 @@
         <v>0</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -3073,16 +3073,16 @@
     </row>
     <row r="37" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37" s="4">
         <v>19</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>14</v>
@@ -3106,7 +3106,7 @@
         <v>16</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -3126,16 +3126,16 @@
     </row>
     <row r="38" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B38" s="4">
         <v>19</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>14</v>
@@ -3159,7 +3159,7 @@
         <v>16</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
@@ -3179,16 +3179,16 @@
     </row>
     <row r="39" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B39" s="4">
         <v>19</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>14</v>
@@ -3209,10 +3209,10 @@
         <v>0</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -3232,16 +3232,16 @@
     </row>
     <row r="40" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B40" s="4">
         <v>19</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>14</v>
@@ -3265,7 +3265,7 @@
         <v>16</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -3285,16 +3285,16 @@
     </row>
     <row r="41" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B41" s="4">
         <v>19</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>14</v>
@@ -3318,7 +3318,7 @@
         <v>16</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
@@ -3338,16 +3338,16 @@
     </row>
     <row r="42" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B42" s="4">
         <v>19</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>14</v>
@@ -3371,10 +3371,10 @@
         <v>16</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
@@ -3393,16 +3393,16 @@
     </row>
     <row r="43" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B43" s="4">
         <v>19</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>14</v>
@@ -3426,7 +3426,7 @@
         <v>16</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -3446,16 +3446,16 @@
     </row>
     <row r="44" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B44" s="4">
         <v>19</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>14</v>
@@ -3479,7 +3479,7 @@
         <v>16</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
@@ -3499,16 +3499,16 @@
     </row>
     <row r="45" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B45" s="4">
         <v>19</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>14</v>
@@ -3532,7 +3532,7 @@
         <v>16</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
@@ -3552,16 +3552,16 @@
     </row>
     <row r="46" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B46" s="4">
         <v>19</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>14</v>
@@ -3582,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
